--- a/medicine/Psychotrope/Houseplant_(entreprise)/Houseplant_(entreprise).xlsx
+++ b/medicine/Psychotrope/Houseplant_(entreprise)/Houseplant_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Houseplant est une entreprise du secteur du cannabis légal cofondée par l'acteur et comédien canado-américain Seth Rogen, l'homme d'affaires américano-canadien Michael Mohr et le scénariste canado-américain Evan Goldberg.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initialement lancée au Canada en 2019[1], Seth Rogen annonce le 11 mars l'expansion de l'entreprise aux États-Unis, en commençant par la Californie via son compte Twitter le 1er mars 2021. L'annonce a été suffisamment populaire pour que le site Web américain de Houseplant tombe en panne en raison de l'augmentation du trafic[2].
-En janvier 2023, Houseplant s'est associé à Airbnb pour proposer un séjour de trois nuits dans une location qui tolérait la consommation de cannabis. Le séjour comprenait également une rencontre avec Seth Rogen[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement lancée au Canada en 2019, Seth Rogen annonce le 11 mars l'expansion de l'entreprise aux États-Unis, en commençant par la Californie via son compte Twitter le 1er mars 2021. L'annonce a été suffisamment populaire pour que le site Web américain de Houseplant tombe en panne en raison de l'augmentation du trafic.
+En janvier 2023, Houseplant s'est associé à Airbnb pour proposer un séjour de trois nuits dans une location qui tolérait la consommation de cannabis. Le séjour comprenait également une rencontre avec Seth Rogen.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Description et produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rogen a examiné « des centaines » de variétés de cannabis avant d'en choisir trois pour le lancement initial. Les variétés Diablo Wind, Pink Moon et Pancake Ice ont été nommées d'après les systèmes météorologiques en référence aux variétés trouvées dans son film Pineapple Express de 2008. De plus, Houseplant vend également des vinyles qui correspondent et sont destinées à être joués sous les effets des produits de la marque[4].
-Le nom de Houseplant est dérivé de la vente par l'entreprise d'articles pour la maison, tels que des cendriers et des céramiques, sous le nom « Housegoods » ( house ) et de produits à base de cannabis ( plant ). Selon Nerdist, Rogen n'a pas mentionné la source du cannabis ni sa relation professionnelle avec les producteurs[5].
-L'entreprise vend également divers accessoires pour la maison, tels que des cendriers élaborés, des briquets de table, des jardinières, des tables tournantes et des collections de disques[3],[6],[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rogen a examiné « des centaines » de variétés de cannabis avant d'en choisir trois pour le lancement initial. Les variétés Diablo Wind, Pink Moon et Pancake Ice ont été nommées d'après les systèmes météorologiques en référence aux variétés trouvées dans son film Pineapple Express de 2008. De plus, Houseplant vend également des vinyles qui correspondent et sont destinées à être joués sous les effets des produits de la marque.
+Le nom de Houseplant est dérivé de la vente par l'entreprise d'articles pour la maison, tels que des cendriers et des céramiques, sous le nom « Housegoods » ( house ) et de produits à base de cannabis ( plant ). Selon Nerdist, Rogen n'a pas mentionné la source du cannabis ni sa relation professionnelle avec les producteurs.
+L'entreprise vend également divers accessoires pour la maison, tels que des cendriers élaborés, des briquets de table, des jardinières, des tables tournantes et des collections de disques.
 </t>
         </is>
       </c>
